--- a/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_icegaso.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpassenger_icegaso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9046D0F-4CDC-C540-9EC3-98D3D1811AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C066B3-6B25-CB48-897C-1BC1A0B0873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,12 +212,6 @@
     <t>Enables the model to not use the capacity if required.</t>
   </si>
   <si>
-    <t>Maximum observed</t>
-  </si>
-  <si>
-    <t>litre_gasoline/Mvkm</t>
-  </si>
-  <si>
     <t>Mpkm/Mvkm</t>
   </si>
   <si>
@@ -281,10 +275,16 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>Average of yearly total Mvkm/total car units. Must be the same for all car technologies. See passenger_private_cars.xlsx</t>
+    <t>Full usage of available cars.</t>
   </si>
   <si>
-    <t>Full usage of available cars.</t>
+    <t>Maximum observed*1.1</t>
+  </si>
+  <si>
+    <t>Average hourly travel per vehicle. Obtained via: total_Mvkm/total_car_units/8760. Must be the same for all car technologies. See passenger_private_cars.xlsx</t>
+  </si>
+  <si>
+    <t>Mvkm/litre_gasoline</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -826,7 +826,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -838,19 +838,19 @@
         <v>41</v>
       </c>
       <c r="G7">
-        <v>72000</v>
+        <v>1.388888888888889E-5</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -858,7 +858,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -873,7 +873,7 @@
         <v>1.7439553522272908</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
         <v>53</v>
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -899,17 +899,17 @@
         <v>34</v>
       </c>
       <c r="G9">
-        <v>314281</v>
+        <v>345709</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
         <v>38</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -917,19 +917,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
       </c>
       <c r="G10">
-        <v>1.2886737000000001E-2</v>
+        <v>1.4710886986301371E-6</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -944,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -956,16 +956,16 @@
         <v>146.69999999999999</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -973,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -991,10 +991,10 @@
         <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1002,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -1036,10 +1036,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -1051,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>54</v>
@@ -1063,7 +1063,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
         <v>55</v>
@@ -1080,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1095,13 +1095,13 @@
         <v>41511.79487163166</v>
       </c>
       <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
         <v>65</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1124,13 +1124,13 @@
         <v>42562.189899563447</v>
       </c>
       <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
         <v>65</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1138,7 +1138,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1153,13 +1153,13 @@
         <v>41995.900013684215</v>
       </c>
       <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
         <v>65</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1167,7 +1167,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1182,13 +1182,13 @@
         <v>41079.0056529227</v>
       </c>
       <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
         <v>65</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1196,7 +1196,7 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1211,13 +1211,13 @@
         <v>39748.92107410977</v>
       </c>
       <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
         <v>65</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1225,7 +1225,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1240,13 +1240,13 @@
         <v>40083.479631866358</v>
       </c>
       <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
         <v>65</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1254,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1269,13 +1269,13 @@
         <v>40384.656336201624</v>
       </c>
       <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
         <v>65</v>
-      </c>
-      <c r="J23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1283,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1298,13 +1298,13 @@
         <v>41081.723519479849</v>
       </c>
       <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" t="s">
         <v>65</v>
-      </c>
-      <c r="J24" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1312,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1327,13 +1327,13 @@
         <v>41980.457649018463</v>
       </c>
       <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
         <v>65</v>
-      </c>
-      <c r="J25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1341,7 +1341,7 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1356,13 +1356,13 @@
         <v>42804.123194528911</v>
       </c>
       <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
         <v>65</v>
-      </c>
-      <c r="J26" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1385,13 +1385,13 @@
         <v>43773.662511218601</v>
       </c>
       <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" t="s">
         <v>65</v>
-      </c>
-      <c r="J27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1399,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -1414,13 +1414,13 @@
         <v>43997.242706133387</v>
       </c>
       <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" t="s">
         <v>65</v>
-      </c>
-      <c r="J28" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1428,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1443,13 +1443,13 @@
         <v>44126.45629156116</v>
       </c>
       <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" t="s">
         <v>65</v>
-      </c>
-      <c r="J29" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1472,13 +1472,13 @@
         <v>44005.054925124365</v>
       </c>
       <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" t="s">
         <v>65</v>
-      </c>
-      <c r="J30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1486,7 +1486,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1501,13 +1501,13 @@
         <v>43820.051087537606</v>
       </c>
       <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" t="s">
         <v>65</v>
-      </c>
-      <c r="J31" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1530,13 +1530,13 @@
         <v>43266.120959527405</v>
       </c>
       <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
         <v>65</v>
-      </c>
-      <c r="J32" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1544,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1559,13 +1559,13 @@
         <v>42683.286720633711</v>
       </c>
       <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" t="s">
         <v>65</v>
-      </c>
-      <c r="J33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1573,7 +1573,7 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1588,13 +1588,13 @@
         <v>42148.44442687156</v>
       </c>
       <c r="H34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" t="s">
         <v>65</v>
-      </c>
-      <c r="J34" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1602,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1617,13 +1617,13 @@
         <v>42175.34310620762</v>
       </c>
       <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" t="s">
         <v>65</v>
-      </c>
-      <c r="J35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L35" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1646,13 +1646,13 @@
         <v>42364.470298324239</v>
       </c>
       <c r="H36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" t="s">
         <v>65</v>
-      </c>
-      <c r="J36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1675,13 +1675,13 @@
         <v>42303.224806952923</v>
       </c>
       <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" t="s">
         <v>65</v>
-      </c>
-      <c r="J37" t="s">
-        <v>38</v>
-      </c>
-      <c r="L37" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1689,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1704,13 +1704,13 @@
         <v>41832.036809430858</v>
       </c>
       <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" t="s">
         <v>65</v>
-      </c>
-      <c r="J38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L38" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1733,13 +1733,13 @@
         <v>41440.194696077757</v>
       </c>
       <c r="H39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" t="s">
         <v>65</v>
-      </c>
-      <c r="J39" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1762,13 +1762,13 @@
         <v>40986.468974483701</v>
       </c>
       <c r="H40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" t="s">
         <v>65</v>
-      </c>
-      <c r="J40" t="s">
-        <v>38</v>
-      </c>
-      <c r="L40" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1776,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1791,13 +1791,13 @@
         <v>40670.892966826868</v>
       </c>
       <c r="H41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" t="s">
         <v>65</v>
-      </c>
-      <c r="J41" t="s">
-        <v>38</v>
-      </c>
-      <c r="L41" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1805,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1820,13 +1820,13 @@
         <v>40347.778683508928</v>
       </c>
       <c r="H42" t="s">
+        <v>63</v>
+      </c>
+      <c r="J42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" t="s">
         <v>65</v>
-      </c>
-      <c r="J42" t="s">
-        <v>38</v>
-      </c>
-      <c r="L42" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1849,13 +1849,13 @@
         <v>40236.81331655426</v>
       </c>
       <c r="H43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" t="s">
         <v>65</v>
-      </c>
-      <c r="J43" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -1863,7 +1863,7 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1878,13 +1878,13 @@
         <v>40217.165183408135</v>
       </c>
       <c r="H44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" t="s">
         <v>65</v>
-      </c>
-      <c r="J44" t="s">
-        <v>38</v>
-      </c>
-      <c r="L44" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -1892,7 +1892,7 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -1907,13 +1907,13 @@
         <v>40192.16922518619</v>
       </c>
       <c r="H45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" t="s">
         <v>65</v>
-      </c>
-      <c r="J45" t="s">
-        <v>38</v>
-      </c>
-      <c r="L45" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -1921,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -1936,13 +1936,13 @@
         <v>40136.80769088633</v>
       </c>
       <c r="H46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46" t="s">
         <v>65</v>
-      </c>
-      <c r="J46" t="s">
-        <v>38</v>
-      </c>
-      <c r="L46" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -1950,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -1965,16 +1965,16 @@
         <v>2905411</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J47" t="s">
         <v>45</v>
       </c>
       <c r="K47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L47" t="s">
         <v>68</v>
-      </c>
-      <c r="L47" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1982,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -1997,16 +1997,16 @@
         <v>2974754</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J48" t="s">
         <v>45</v>
       </c>
       <c r="K48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L48" t="s">
         <v>68</v>
-      </c>
-      <c r="L48" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2014,7 +2014,7 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -2029,16 +2029,16 @@
         <v>3006595</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J49" t="s">
         <v>45</v>
       </c>
       <c r="K49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L49" t="s">
         <v>68</v>
-      </c>
-      <c r="L49" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2046,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -2061,16 +2061,16 @@
         <v>3022614</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J50" t="s">
         <v>45</v>
       </c>
       <c r="K50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" t="s">
         <v>68</v>
-      </c>
-      <c r="L50" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2078,7 +2078,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -2093,16 +2093,16 @@
         <v>3072879</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J51" t="s">
         <v>45</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L51" t="s">
         <v>68</v>
-      </c>
-      <c r="L51" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -2125,16 +2125,16 @@
         <v>3132010</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J52" t="s">
         <v>45</v>
       </c>
       <c r="K52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L52" t="s">
         <v>68</v>
-      </c>
-      <c r="L52" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2142,7 +2142,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -2157,16 +2157,16 @@
         <v>3166032</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" t="s">
         <v>68</v>
-      </c>
-      <c r="L53" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -2189,16 +2189,16 @@
         <v>3216236</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" t="s">
         <v>68</v>
-      </c>
-      <c r="L54" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2206,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -2221,16 +2221,16 @@
         <v>3269339</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L55" t="s">
         <v>68</v>
-      </c>
-      <c r="L55" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2238,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
@@ -2253,16 +2253,16 @@
         <v>3342201</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J56" t="s">
         <v>45</v>
       </c>
       <c r="K56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L56" t="s">
         <v>68</v>
-      </c>
-      <c r="L56" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2270,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -2285,16 +2285,16 @@
         <v>3402236</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J57" t="s">
         <v>45</v>
       </c>
       <c r="K57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L57" t="s">
         <v>68</v>
-      </c>
-      <c r="L57" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2302,7 +2302,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -2317,16 +2317,16 @@
         <v>3456397</v>
       </c>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J58" t="s">
         <v>45</v>
       </c>
       <c r="K58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L58" t="s">
         <v>68</v>
-      </c>
-      <c r="L58" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2334,7 +2334,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -2349,16 +2349,16 @@
         <v>3486673</v>
       </c>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J59" t="s">
         <v>45</v>
       </c>
       <c r="K59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L59" t="s">
         <v>68</v>
-      </c>
-      <c r="L59" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2366,7 +2366,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -2381,16 +2381,16 @@
         <v>3490616</v>
       </c>
       <c r="H60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J60" t="s">
         <v>45</v>
       </c>
       <c r="K60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L60" t="s">
         <v>68</v>
-      </c>
-      <c r="L60" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2398,7 +2398,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -2413,16 +2413,16 @@
         <v>3489843</v>
       </c>
       <c r="H61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
       </c>
       <c r="K61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L61" t="s">
         <v>68</v>
-      </c>
-      <c r="L61" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -2445,16 +2445,16 @@
         <v>3475004</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J62" t="s">
         <v>45</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2462,7 +2462,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -2477,16 +2477,16 @@
         <v>3442302</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J63" t="s">
         <v>45</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -2509,16 +2509,16 @@
         <v>3418081</v>
       </c>
       <c r="H64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J64" t="s">
         <v>45</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2526,7 +2526,7 @@
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -2541,16 +2541,16 @@
         <v>3370326</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J65" t="s">
         <v>45</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2558,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -2573,16 +2573,16 @@
         <v>3320810</v>
       </c>
       <c r="H66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J66" t="s">
         <v>45</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2590,7 +2590,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -2605,16 +2605,16 @@
         <v>3308634</v>
       </c>
       <c r="H67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2622,7 +2622,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -2637,16 +2637,16 @@
         <v>3301501</v>
       </c>
       <c r="H68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2654,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -2669,16 +2669,16 @@
         <v>3278675</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2686,7 +2686,7 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -2701,16 +2701,16 @@
         <v>3234560</v>
       </c>
       <c r="H70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J70" t="s">
         <v>45</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -2733,16 +2733,16 @@
         <v>3201710</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J71" t="s">
         <v>45</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2750,7 +2750,7 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -2765,16 +2765,16 @@
         <v>3173806</v>
       </c>
       <c r="H72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J72" t="s">
         <v>45</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2782,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -2797,16 +2797,16 @@
         <v>3149902</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J73" t="s">
         <v>45</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L73" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2814,7 +2814,7 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -2829,16 +2829,16 @@
         <v>3127023</v>
       </c>
       <c r="H74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J74" t="s">
         <v>45</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2846,7 +2846,7 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -2861,16 +2861,16 @@
         <v>3114725</v>
       </c>
       <c r="H75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J75" t="s">
         <v>45</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2878,7 +2878,7 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -2893,16 +2893,16 @@
         <v>3099442</v>
       </c>
       <c r="H76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J76" t="s">
         <v>45</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -2910,7 +2910,7 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -2925,7 +2925,7 @@
         <v>314281</v>
       </c>
       <c r="H77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J77" t="s">
         <v>46</v>
@@ -2942,7 +2942,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2957,7 +2957,7 @@
         <v>302764</v>
       </c>
       <c r="H78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J78" t="s">
         <v>46</v>
@@ -2974,7 +2974,7 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2989,7 +2989,7 @@
         <v>278165</v>
       </c>
       <c r="H79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
@@ -3006,7 +3006,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -3021,7 +3021,7 @@
         <v>248454</v>
       </c>
       <c r="H80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J80" t="s">
         <v>46</v>
@@ -3038,7 +3038,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -3053,7 +3053,7 @@
         <v>254027</v>
       </c>
       <c r="H81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J81" t="s">
         <v>46</v>
@@ -3070,7 +3070,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -3085,7 +3085,7 @@
         <v>257210</v>
       </c>
       <c r="H82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J82" t="s">
         <v>46</v>
@@ -3102,7 +3102,7 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -3117,7 +3117,7 @@
         <v>259507</v>
       </c>
       <c r="H83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J83" t="s">
         <v>46</v>
@@ -3134,7 +3134,7 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -3149,7 +3149,7 @@
         <v>257127</v>
       </c>
       <c r="H84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J84" t="s">
         <v>46</v>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -3181,7 +3181,7 @@
         <v>278426</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J85" t="s">
         <v>46</v>
@@ -3198,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -3213,7 +3213,7 @@
         <v>293896</v>
       </c>
       <c r="H86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J86" t="s">
         <v>46</v>
@@ -3230,7 +3230,7 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -3245,7 +3245,7 @@
         <v>285407</v>
       </c>
       <c r="H87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J87" t="s">
         <v>46</v>
@@ -3262,7 +3262,7 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -3277,7 +3277,7 @@
         <v>272734</v>
       </c>
       <c r="H88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J88" t="s">
         <v>46</v>
@@ -3294,7 +3294,7 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -3309,7 +3309,7 @@
         <v>240771</v>
       </c>
       <c r="H89" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J89" t="s">
         <v>46</v>
@@ -3326,7 +3326,7 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -3341,7 +3341,7 @@
         <v>211547</v>
       </c>
       <c r="H90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J90" t="s">
         <v>46</v>
@@ -3358,7 +3358,7 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -3373,7 +3373,7 @@
         <v>197776</v>
       </c>
       <c r="H91" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J91" t="s">
         <v>46</v>
@@ -3390,7 +3390,7 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
@@ -3405,16 +3405,16 @@
         <v>185120</v>
       </c>
       <c r="H92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J92" t="s">
         <v>45</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L92" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3422,7 +3422,7 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
@@ -3437,16 +3437,16 @@
         <v>185807</v>
       </c>
       <c r="H93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J93" t="s">
         <v>45</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3454,7 +3454,7 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
@@ -3469,16 +3469,16 @@
         <v>185055</v>
       </c>
       <c r="H94" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J94" t="s">
         <v>45</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L94" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3486,7 +3486,7 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -3501,16 +3501,16 @@
         <v>189151</v>
       </c>
       <c r="H95" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J95" t="s">
         <v>45</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L95" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3518,7 +3518,7 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
@@ -3533,16 +3533,16 @@
         <v>182174</v>
       </c>
       <c r="H96" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J96" t="s">
         <v>45</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L96" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3550,7 +3550,7 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
@@ -3565,16 +3565,16 @@
         <v>200576</v>
       </c>
       <c r="H97" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J97" t="s">
         <v>45</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L97" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
@@ -3597,16 +3597,16 @@
         <v>211540</v>
       </c>
       <c r="H98" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J98" t="s">
         <v>45</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L98" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3614,7 +3614,7 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
@@ -3629,16 +3629,16 @@
         <v>200576</v>
       </c>
       <c r="H99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J99" t="s">
         <v>45</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L99" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3646,7 +3646,7 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
         <v>18</v>
@@ -3661,16 +3661,16 @@
         <v>185070</v>
       </c>
       <c r="H100" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J100" t="s">
         <v>45</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3678,7 +3678,7 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
@@ -3693,16 +3693,16 @@
         <v>180875</v>
       </c>
       <c r="H101" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J101" t="s">
         <v>45</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L101" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3710,7 +3710,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
         <v>18</v>
@@ -3725,16 +3725,16 @@
         <v>185469</v>
       </c>
       <c r="H102" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J102" t="s">
         <v>45</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3742,7 +3742,7 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C103" t="s">
         <v>18</v>
@@ -3757,16 +3757,16 @@
         <v>178666</v>
       </c>
       <c r="H103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L103" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3774,7 +3774,7 @@
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
         <v>18</v>
@@ -3789,16 +3789,16 @@
         <v>183637</v>
       </c>
       <c r="H104" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L104" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3806,7 +3806,7 @@
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
         <v>18</v>
@@ -3821,16 +3821,16 @@
         <v>188847</v>
       </c>
       <c r="H105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L105" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -3838,7 +3838,7 @@
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
@@ -3853,16 +3853,16 @@
         <v>192119</v>
       </c>
       <c r="H106" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -3870,7 +3870,7 @@
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
@@ -3887,7 +3887,7 @@
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -3902,7 +3902,7 @@
         <v>233421</v>
       </c>
       <c r="H108" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J108" t="s">
         <v>38</v>
@@ -3916,7 +3916,7 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
@@ -3931,7 +3931,7 @@
         <v>246324</v>
       </c>
       <c r="H109" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J109" t="s">
         <v>38</v>
@@ -3945,7 +3945,7 @@
         <v>15</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -3960,7 +3960,7 @@
         <v>232435</v>
       </c>
       <c r="H110" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J110" t="s">
         <v>38</v>
@@ -3974,7 +3974,7 @@
         <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
@@ -3989,7 +3989,7 @@
         <v>203762</v>
       </c>
       <c r="H111" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J111" t="s">
         <v>38</v>
@@ -4003,7 +4003,7 @@
         <v>15</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C112" t="s">
         <v>19</v>
@@ -4018,7 +4018,7 @@
         <v>198079</v>
       </c>
       <c r="H112" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J112" t="s">
         <v>38</v>
@@ -4032,7 +4032,7 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
@@ -4047,7 +4047,7 @@
         <v>225485</v>
       </c>
       <c r="H113" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J113" t="s">
         <v>38</v>
@@ -4061,7 +4061,7 @@
         <v>15</v>
       </c>
       <c r="B114" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
@@ -4076,7 +4076,7 @@
         <v>206923</v>
       </c>
       <c r="H114" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J114" t="s">
         <v>38</v>
@@ -4090,7 +4090,7 @@
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C115" t="s">
         <v>19</v>
@@ -4105,7 +4105,7 @@
         <v>225323</v>
       </c>
       <c r="H115" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J115" t="s">
         <v>38</v>
@@ -4119,7 +4119,7 @@
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C116" t="s">
         <v>19</v>
@@ -4134,7 +4134,7 @@
         <v>221034</v>
       </c>
       <c r="H116" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J116" t="s">
         <v>38</v>
@@ -4148,7 +4148,7 @@
         <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C117" t="s">
         <v>19</v>
@@ -4163,7 +4163,7 @@
         <v>225372</v>
       </c>
       <c r="H117" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J117" t="s">
         <v>38</v>
@@ -4177,7 +4177,7 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C118" t="s">
         <v>19</v>
@@ -4192,7 +4192,7 @@
         <v>218573</v>
       </c>
       <c r="H118" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J118" t="s">
         <v>38</v>
@@ -4206,7 +4206,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C119" t="s">
         <v>19</v>
@@ -4221,7 +4221,7 @@
         <v>210495</v>
       </c>
       <c r="H119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J119" t="s">
         <v>38</v>
@@ -4235,7 +4235,7 @@
         <v>15</v>
       </c>
       <c r="B120" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
@@ -4250,7 +4250,7 @@
         <v>207604</v>
       </c>
       <c r="H120" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J120" t="s">
         <v>38</v>
@@ -4264,7 +4264,7 @@
         <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
@@ -4279,7 +4279,7 @@
         <v>198549</v>
       </c>
       <c r="H121" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J121" t="s">
         <v>38</v>
@@ -4293,7 +4293,7 @@
         <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
@@ -4308,7 +4308,7 @@
         <v>199959</v>
       </c>
       <c r="H122" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J122" t="s">
         <v>38</v>
@@ -4322,7 +4322,7 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
@@ -4337,7 +4337,7 @@
         <v>218509</v>
       </c>
       <c r="H123" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J123" t="s">
         <v>38</v>
@@ -4351,7 +4351,7 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C124" t="s">
         <v>19</v>
@@ -4366,7 +4366,7 @@
         <v>209276</v>
       </c>
       <c r="H124" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J124" t="s">
         <v>38</v>
@@ -4380,7 +4380,7 @@
         <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
@@ -4395,7 +4395,7 @@
         <v>236906</v>
       </c>
       <c r="H125" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J125" t="s">
         <v>38</v>
@@ -4409,7 +4409,7 @@
         <v>15</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
@@ -4424,7 +4424,7 @@
         <v>231690</v>
       </c>
       <c r="H126" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J126" t="s">
         <v>38</v>
@@ -4438,7 +4438,7 @@
         <v>15</v>
       </c>
       <c r="B127" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C127" t="s">
         <v>19</v>
@@ -4453,7 +4453,7 @@
         <v>212752</v>
       </c>
       <c r="H127" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J127" t="s">
         <v>38</v>
@@ -4467,7 +4467,7 @@
         <v>15</v>
       </c>
       <c r="B128" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C128" t="s">
         <v>19</v>
@@ -4482,7 +4482,7 @@
         <v>218673</v>
       </c>
       <c r="H128" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J128" t="s">
         <v>38</v>
@@ -4496,7 +4496,7 @@
         <v>15</v>
       </c>
       <c r="B129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
@@ -4511,7 +4511,7 @@
         <v>223402</v>
       </c>
       <c r="H129" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J129" t="s">
         <v>38</v>
@@ -4525,7 +4525,7 @@
         <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
@@ -4540,7 +4540,7 @@
         <v>229185</v>
       </c>
       <c r="H130" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J130" t="s">
         <v>38</v>
@@ -4554,7 +4554,7 @@
         <v>15</v>
       </c>
       <c r="B131" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
@@ -4569,7 +4569,7 @@
         <v>213725</v>
       </c>
       <c r="H131" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J131" t="s">
         <v>38</v>
@@ -4583,7 +4583,7 @@
         <v>15</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
@@ -4598,7 +4598,7 @@
         <v>213373</v>
       </c>
       <c r="H132" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J132" t="s">
         <v>38</v>
@@ -4612,7 +4612,7 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C133" t="s">
         <v>19</v>
@@ -4627,7 +4627,7 @@
         <v>202570</v>
       </c>
       <c r="H133" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J133" t="s">
         <v>38</v>
@@ -4641,7 +4641,7 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C134" t="s">
         <v>19</v>
@@ -4656,7 +4656,7 @@
         <v>206516</v>
       </c>
       <c r="H134" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J134" t="s">
         <v>38</v>
@@ -4670,7 +4670,7 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
@@ -4685,7 +4685,7 @@
         <v>201145</v>
       </c>
       <c r="H135" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J135" t="s">
         <v>38</v>
@@ -4699,7 +4699,7 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C136" t="s">
         <v>19</v>
@@ -4714,7 +4714,7 @@
         <v>207402</v>
       </c>
       <c r="H136" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J136" t="s">
         <v>38</v>
@@ -4728,7 +4728,7 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C137" t="s">
         <v>22</v>
@@ -4745,7 +4745,7 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C138" t="s">
         <v>22</v>
@@ -4762,7 +4762,7 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
@@ -4779,7 +4779,7 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -4796,7 +4796,7 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C141" t="s">
         <v>22</v>
@@ -4813,7 +4813,7 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C142" t="s">
         <v>22</v>
@@ -4830,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
@@ -4847,7 +4847,7 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
@@ -4864,7 +4864,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
@@ -4881,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C146" t="s">
         <v>22</v>
@@ -4898,7 +4898,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C147" t="s">
         <v>22</v>
@@ -4915,7 +4915,7 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C148" t="s">
         <v>22</v>
@@ -4932,7 +4932,7 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C149" t="s">
         <v>22</v>
@@ -4949,7 +4949,7 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C150" t="s">
         <v>22</v>
@@ -4966,7 +4966,7 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C151" t="s">
         <v>22</v>
@@ -4983,7 +4983,7 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
@@ -5000,7 +5000,7 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -5017,7 +5017,7 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C154" t="s">
         <v>22</v>
@@ -5034,7 +5034,7 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
@@ -5051,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C156" t="s">
         <v>22</v>
@@ -5068,7 +5068,7 @@
         <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C157" t="s">
         <v>22</v>
@@ -5089,10 +5089,10 @@
         <v>43</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L157" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -5100,7 +5100,7 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C158" t="s">
         <v>22</v>
@@ -5117,7 +5117,7 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C159" t="s">
         <v>22</v>
@@ -5134,7 +5134,7 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
@@ -5151,7 +5151,7 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -5168,7 +5168,7 @@
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C162" t="s">
         <v>22</v>
@@ -5185,7 +5185,7 @@
         <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
@@ -5202,7 +5202,7 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C164" t="s">
         <v>22</v>
@@ -5219,7 +5219,7 @@
         <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C165" t="s">
         <v>22</v>
@@ -5236,7 +5236,7 @@
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C166" t="s">
         <v>22</v>
@@ -5253,7 +5253,7 @@
         <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C167" t="s">
         <v>23</v>
@@ -5270,7 +5270,7 @@
         <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C168" t="s">
         <v>23</v>
@@ -5287,7 +5287,7 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C169" t="s">
         <v>23</v>
@@ -5304,7 +5304,7 @@
         <v>15</v>
       </c>
       <c r="B170" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C170" t="s">
         <v>23</v>
@@ -5321,7 +5321,7 @@
         <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C171" t="s">
         <v>23</v>
@@ -5338,7 +5338,7 @@
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C172" t="s">
         <v>23</v>
@@ -5355,7 +5355,7 @@
         <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C173" t="s">
         <v>23</v>
@@ -5372,7 +5372,7 @@
         <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C174" t="s">
         <v>23</v>
@@ -5389,7 +5389,7 @@
         <v>15</v>
       </c>
       <c r="B175" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C175" t="s">
         <v>23</v>
@@ -5406,7 +5406,7 @@
         <v>15</v>
       </c>
       <c r="B176" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -5423,7 +5423,7 @@
         <v>15</v>
       </c>
       <c r="B177" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C177" t="s">
         <v>23</v>
@@ -5440,7 +5440,7 @@
         <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C178" t="s">
         <v>23</v>
@@ -5457,7 +5457,7 @@
         <v>15</v>
       </c>
       <c r="B179" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C179" t="s">
         <v>23</v>
@@ -5474,7 +5474,7 @@
         <v>15</v>
       </c>
       <c r="B180" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C180" t="s">
         <v>23</v>
@@ -5491,7 +5491,7 @@
         <v>15</v>
       </c>
       <c r="B181" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C181" t="s">
         <v>23</v>
@@ -5508,7 +5508,7 @@
         <v>15</v>
       </c>
       <c r="B182" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C182" t="s">
         <v>23</v>
@@ -5525,7 +5525,7 @@
         <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C183" t="s">
         <v>23</v>
@@ -5542,7 +5542,7 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C184" t="s">
         <v>23</v>
@@ -5559,7 +5559,7 @@
         <v>15</v>
       </c>
       <c r="B185" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C185" t="s">
         <v>23</v>
@@ -5576,7 +5576,7 @@
         <v>15</v>
       </c>
       <c r="B186" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C186" t="s">
         <v>23</v>
@@ -5593,7 +5593,7 @@
         <v>15</v>
       </c>
       <c r="B187" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C187" t="s">
         <v>23</v>
@@ -5614,10 +5614,10 @@
         <v>43</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L187" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -5625,7 +5625,7 @@
         <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C188" t="s">
         <v>23</v>
@@ -5642,7 +5642,7 @@
         <v>15</v>
       </c>
       <c r="B189" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C189" t="s">
         <v>23</v>
@@ -5659,7 +5659,7 @@
         <v>15</v>
       </c>
       <c r="B190" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C190" t="s">
         <v>23</v>
@@ -5676,7 +5676,7 @@
         <v>15</v>
       </c>
       <c r="B191" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C191" t="s">
         <v>23</v>
@@ -5693,7 +5693,7 @@
         <v>15</v>
       </c>
       <c r="B192" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C192" t="s">
         <v>23</v>
@@ -5710,7 +5710,7 @@
         <v>15</v>
       </c>
       <c r="B193" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C193" t="s">
         <v>23</v>
@@ -5727,7 +5727,7 @@
         <v>15</v>
       </c>
       <c r="B194" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C194" t="s">
         <v>23</v>
@@ -5744,7 +5744,7 @@
         <v>15</v>
       </c>
       <c r="B195" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C195" t="s">
         <v>23</v>
@@ -5761,7 +5761,7 @@
         <v>15</v>
       </c>
       <c r="B196" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C196" t="s">
         <v>23</v>
@@ -5778,7 +5778,7 @@
         <v>15</v>
       </c>
       <c r="B197" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C197" t="s">
         <v>24</v>
@@ -5795,7 +5795,7 @@
         <v>15</v>
       </c>
       <c r="B198" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C198" t="s">
         <v>24</v>
@@ -5812,7 +5812,7 @@
         <v>15</v>
       </c>
       <c r="B199" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
@@ -5829,7 +5829,7 @@
         <v>15</v>
       </c>
       <c r="B200" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C200" t="s">
         <v>24</v>
@@ -5846,7 +5846,7 @@
         <v>15</v>
       </c>
       <c r="B201" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
@@ -5863,7 +5863,7 @@
         <v>15</v>
       </c>
       <c r="B202" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
@@ -5880,7 +5880,7 @@
         <v>15</v>
       </c>
       <c r="B203" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C203" t="s">
         <v>24</v>
@@ -5897,7 +5897,7 @@
         <v>15</v>
       </c>
       <c r="B204" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C204" t="s">
         <v>24</v>
@@ -5914,7 +5914,7 @@
         <v>15</v>
       </c>
       <c r="B205" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
@@ -5931,7 +5931,7 @@
         <v>15</v>
       </c>
       <c r="B206" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
@@ -5948,7 +5948,7 @@
         <v>15</v>
       </c>
       <c r="B207" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C207" t="s">
         <v>24</v>
@@ -5965,7 +5965,7 @@
         <v>15</v>
       </c>
       <c r="B208" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C208" t="s">
         <v>24</v>
@@ -5982,7 +5982,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C209" t="s">
         <v>24</v>
@@ -5999,7 +5999,7 @@
         <v>15</v>
       </c>
       <c r="B210" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C210" t="s">
         <v>24</v>
@@ -6016,7 +6016,7 @@
         <v>15</v>
       </c>
       <c r="B211" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C211" t="s">
         <v>24</v>
@@ -6033,7 +6033,7 @@
         <v>15</v>
       </c>
       <c r="B212" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
@@ -6050,7 +6050,7 @@
         <v>15</v>
       </c>
       <c r="B213" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C213" t="s">
         <v>24</v>
@@ -6067,7 +6067,7 @@
         <v>15</v>
       </c>
       <c r="B214" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C214" t="s">
         <v>24</v>
@@ -6084,7 +6084,7 @@
         <v>15</v>
       </c>
       <c r="B215" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
@@ -6101,7 +6101,7 @@
         <v>15</v>
       </c>
       <c r="B216" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C216" t="s">
         <v>24</v>
@@ -6118,7 +6118,7 @@
         <v>15</v>
       </c>
       <c r="B217" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C217" t="s">
         <v>24</v>
@@ -6133,16 +6133,16 @@
         <v>40000</v>
       </c>
       <c r="H217" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J217" t="s">
         <v>43</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L217" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -6150,7 +6150,7 @@
         <v>15</v>
       </c>
       <c r="B218" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C218" t="s">
         <v>24</v>
@@ -6167,7 +6167,7 @@
         <v>15</v>
       </c>
       <c r="B219" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C219" t="s">
         <v>24</v>
@@ -6184,7 +6184,7 @@
         <v>15</v>
       </c>
       <c r="B220" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C220" t="s">
         <v>24</v>
@@ -6201,7 +6201,7 @@
         <v>15</v>
       </c>
       <c r="B221" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C221" t="s">
         <v>24</v>
@@ -6218,7 +6218,7 @@
         <v>15</v>
       </c>
       <c r="B222" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C222" t="s">
         <v>24</v>
@@ -6235,7 +6235,7 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C223" t="s">
         <v>24</v>
@@ -6252,7 +6252,7 @@
         <v>15</v>
       </c>
       <c r="B224" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C224" t="s">
         <v>24</v>
@@ -6269,7 +6269,7 @@
         <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C225" t="s">
         <v>24</v>
@@ -6286,7 +6286,7 @@
         <v>15</v>
       </c>
       <c r="B226" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C226" t="s">
         <v>24</v>
@@ -6303,7 +6303,7 @@
         <v>15</v>
       </c>
       <c r="B227" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C227" t="s">
         <v>25</v>
@@ -6320,7 +6320,7 @@
         <v>15</v>
       </c>
       <c r="B228" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C228" t="s">
         <v>25</v>
@@ -6349,7 +6349,7 @@
         <v>15</v>
       </c>
       <c r="B229" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C229" t="s">
         <v>25</v>
@@ -6378,7 +6378,7 @@
         <v>15</v>
       </c>
       <c r="B230" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C230" t="s">
         <v>25</v>
@@ -6407,7 +6407,7 @@
         <v>15</v>
       </c>
       <c r="B231" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C231" t="s">
         <v>25</v>
@@ -6436,7 +6436,7 @@
         <v>15</v>
       </c>
       <c r="B232" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C232" t="s">
         <v>25</v>
@@ -6465,7 +6465,7 @@
         <v>15</v>
       </c>
       <c r="B233" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C233" t="s">
         <v>25</v>
@@ -6494,7 +6494,7 @@
         <v>15</v>
       </c>
       <c r="B234" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C234" t="s">
         <v>25</v>
@@ -6523,7 +6523,7 @@
         <v>15</v>
       </c>
       <c r="B235" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C235" t="s">
         <v>25</v>
@@ -6552,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="B236" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C236" t="s">
         <v>25</v>
@@ -6581,7 +6581,7 @@
         <v>15</v>
       </c>
       <c r="B237" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C237" t="s">
         <v>25</v>
@@ -6610,7 +6610,7 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C238" t="s">
         <v>25</v>
@@ -6639,7 +6639,7 @@
         <v>15</v>
       </c>
       <c r="B239" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C239" t="s">
         <v>25</v>
@@ -6668,7 +6668,7 @@
         <v>15</v>
       </c>
       <c r="B240" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C240" t="s">
         <v>25</v>
@@ -6697,7 +6697,7 @@
         <v>15</v>
       </c>
       <c r="B241" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C241" t="s">
         <v>25</v>
@@ -6726,7 +6726,7 @@
         <v>15</v>
       </c>
       <c r="B242" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C242" t="s">
         <v>25</v>
@@ -6755,7 +6755,7 @@
         <v>15</v>
       </c>
       <c r="B243" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C243" t="s">
         <v>25</v>
@@ -6784,7 +6784,7 @@
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C244" t="s">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C245" t="s">
         <v>25</v>
@@ -6842,7 +6842,7 @@
         <v>15</v>
       </c>
       <c r="B246" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C246" t="s">
         <v>25</v>
@@ -6871,7 +6871,7 @@
         <v>15</v>
       </c>
       <c r="B247" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C247" t="s">
         <v>25</v>
@@ -6900,7 +6900,7 @@
         <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C248" t="s">
         <v>25</v>
@@ -6929,7 +6929,7 @@
         <v>15</v>
       </c>
       <c r="B249" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C249" t="s">
         <v>25</v>
@@ -6958,7 +6958,7 @@
         <v>15</v>
       </c>
       <c r="B250" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C250" t="s">
         <v>25</v>
@@ -6987,7 +6987,7 @@
         <v>15</v>
       </c>
       <c r="B251" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C251" t="s">
         <v>25</v>
@@ -7016,7 +7016,7 @@
         <v>15</v>
       </c>
       <c r="B252" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C252" t="s">
         <v>25</v>
@@ -7045,7 +7045,7 @@
         <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C253" t="s">
         <v>25</v>
@@ -7074,7 +7074,7 @@
         <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C254" t="s">
         <v>25</v>
@@ -7103,7 +7103,7 @@
         <v>15</v>
       </c>
       <c r="B255" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C255" t="s">
         <v>25</v>
@@ -7132,7 +7132,7 @@
         <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C256" t="s">
         <v>25</v>
@@ -7161,7 +7161,7 @@
         <v>15</v>
       </c>
       <c r="B257" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C257" t="s">
         <v>26</v>
@@ -7180,7 +7180,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7188,7 +7188,7 @@
         <v>15</v>
       </c>
       <c r="B258" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C258" t="s">
         <v>26</v>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7215,7 +7215,7 @@
         <v>15</v>
       </c>
       <c r="B259" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C259" t="s">
         <v>26</v>
@@ -7234,7 +7234,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7242,7 +7242,7 @@
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C260" t="s">
         <v>26</v>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7269,7 +7269,7 @@
         <v>15</v>
       </c>
       <c r="B261" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C261" t="s">
         <v>26</v>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7296,7 +7296,7 @@
         <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C262" t="s">
         <v>26</v>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="K262" s="2"/>
       <c r="L262" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7323,7 +7323,7 @@
         <v>15</v>
       </c>
       <c r="B263" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C263" t="s">
         <v>26</v>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7350,7 +7350,7 @@
         <v>15</v>
       </c>
       <c r="B264" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C264" t="s">
         <v>26</v>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="K264" s="2"/>
       <c r="L264" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7377,7 +7377,7 @@
         <v>15</v>
       </c>
       <c r="B265" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C265" t="s">
         <v>26</v>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -7404,7 +7404,7 @@
         <v>15</v>
       </c>
       <c r="B266" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C266" t="s">
         <v>26</v>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -7431,7 +7431,7 @@
         <v>15</v>
       </c>
       <c r="B267" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C267" t="s">
         <v>26</v>
@@ -7450,7 +7450,7 @@
       </c>
       <c r="K267" s="2"/>
       <c r="L267" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -7458,7 +7458,7 @@
         <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C268" t="s">
         <v>26</v>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -7485,7 +7485,7 @@
         <v>15</v>
       </c>
       <c r="B269" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C269" t="s">
         <v>26</v>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -7512,7 +7512,7 @@
         <v>15</v>
       </c>
       <c r="B270" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C270" t="s">
         <v>26</v>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -7539,7 +7539,7 @@
         <v>15</v>
       </c>
       <c r="B271" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C271" t="s">
         <v>26</v>
@@ -7558,7 +7558,7 @@
       </c>
       <c r="K271" s="2"/>
       <c r="L271" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -7566,7 +7566,7 @@
         <v>15</v>
       </c>
       <c r="B272" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C272" t="s">
         <v>26</v>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -7593,7 +7593,7 @@
         <v>15</v>
       </c>
       <c r="B273" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C273" t="s">
         <v>26</v>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -7620,7 +7620,7 @@
         <v>15</v>
       </c>
       <c r="B274" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C274" t="s">
         <v>26</v>
@@ -7639,7 +7639,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -7647,7 +7647,7 @@
         <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C275" t="s">
         <v>26</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -7674,7 +7674,7 @@
         <v>15</v>
       </c>
       <c r="B276" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C276" t="s">
         <v>26</v>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -7701,7 +7701,7 @@
         <v>15</v>
       </c>
       <c r="B277" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C277" t="s">
         <v>26</v>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -7728,7 +7728,7 @@
         <v>15</v>
       </c>
       <c r="B278" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C278" t="s">
         <v>26</v>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -7755,7 +7755,7 @@
         <v>15</v>
       </c>
       <c r="B279" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C279" t="s">
         <v>26</v>
@@ -7774,7 +7774,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -7782,7 +7782,7 @@
         <v>15</v>
       </c>
       <c r="B280" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C280" t="s">
         <v>26</v>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -7809,7 +7809,7 @@
         <v>15</v>
       </c>
       <c r="B281" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C281" t="s">
         <v>26</v>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -7836,7 +7836,7 @@
         <v>15</v>
       </c>
       <c r="B282" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C282" t="s">
         <v>26</v>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -7863,7 +7863,7 @@
         <v>15</v>
       </c>
       <c r="B283" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C283" t="s">
         <v>26</v>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -7890,7 +7890,7 @@
         <v>15</v>
       </c>
       <c r="B284" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C284" t="s">
         <v>26</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -7917,7 +7917,7 @@
         <v>15</v>
       </c>
       <c r="B285" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C285" t="s">
         <v>26</v>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -7944,7 +7944,7 @@
         <v>15</v>
       </c>
       <c r="B286" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C286" t="s">
         <v>26</v>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -7971,7 +7971,7 @@
         <v>15</v>
       </c>
       <c r="B287" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -7997,7 +7997,7 @@
         <v>15</v>
       </c>
       <c r="B288" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C288" t="s">
         <v>27</v>
@@ -8023,7 +8023,7 @@
         <v>15</v>
       </c>
       <c r="B289" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C289" t="s">
         <v>27</v>
@@ -8049,7 +8049,7 @@
         <v>15</v>
       </c>
       <c r="B290" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C290" t="s">
         <v>27</v>
@@ -8075,7 +8075,7 @@
         <v>15</v>
       </c>
       <c r="B291" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C291" t="s">
         <v>27</v>
@@ -8101,7 +8101,7 @@
         <v>15</v>
       </c>
       <c r="B292" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -8127,7 +8127,7 @@
         <v>15</v>
       </c>
       <c r="B293" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C293" t="s">
         <v>27</v>
@@ -8153,7 +8153,7 @@
         <v>15</v>
       </c>
       <c r="B294" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -8179,7 +8179,7 @@
         <v>15</v>
       </c>
       <c r="B295" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -8205,7 +8205,7 @@
         <v>15</v>
       </c>
       <c r="B296" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C296" t="s">
         <v>27</v>
@@ -8231,7 +8231,7 @@
         <v>15</v>
       </c>
       <c r="B297" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -8257,7 +8257,7 @@
         <v>15</v>
       </c>
       <c r="B298" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C298" t="s">
         <v>27</v>
@@ -8283,7 +8283,7 @@
         <v>15</v>
       </c>
       <c r="B299" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C299" t="s">
         <v>27</v>
@@ -8309,7 +8309,7 @@
         <v>15</v>
       </c>
       <c r="B300" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C300" t="s">
         <v>27</v>
@@ -8335,7 +8335,7 @@
         <v>15</v>
       </c>
       <c r="B301" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C301" t="s">
         <v>27</v>
@@ -8361,7 +8361,7 @@
         <v>15</v>
       </c>
       <c r="B302" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C302" t="s">
         <v>27</v>
@@ -8387,7 +8387,7 @@
         <v>15</v>
       </c>
       <c r="B303" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C303" t="s">
         <v>27</v>
@@ -8413,7 +8413,7 @@
         <v>15</v>
       </c>
       <c r="B304" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C304" t="s">
         <v>27</v>
@@ -8439,7 +8439,7 @@
         <v>15</v>
       </c>
       <c r="B305" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C305" t="s">
         <v>27</v>
@@ -8465,7 +8465,7 @@
         <v>15</v>
       </c>
       <c r="B306" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C306" t="s">
         <v>27</v>
@@ -8491,7 +8491,7 @@
         <v>15</v>
       </c>
       <c r="B307" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C307" t="s">
         <v>27</v>
@@ -8517,7 +8517,7 @@
         <v>15</v>
       </c>
       <c r="B308" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C308" t="s">
         <v>27</v>
@@ -8543,7 +8543,7 @@
         <v>15</v>
       </c>
       <c r="B309" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C309" t="s">
         <v>27</v>
@@ -8569,7 +8569,7 @@
         <v>15</v>
       </c>
       <c r="B310" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C310" t="s">
         <v>27</v>
@@ -8595,7 +8595,7 @@
         <v>15</v>
       </c>
       <c r="B311" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C311" t="s">
         <v>27</v>
@@ -8621,7 +8621,7 @@
         <v>15</v>
       </c>
       <c r="B312" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C312" t="s">
         <v>27</v>
@@ -8647,7 +8647,7 @@
         <v>15</v>
       </c>
       <c r="B313" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C313" t="s">
         <v>27</v>
@@ -8673,7 +8673,7 @@
         <v>15</v>
       </c>
       <c r="B314" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C314" t="s">
         <v>27</v>
@@ -8699,7 +8699,7 @@
         <v>15</v>
       </c>
       <c r="B315" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C315" t="s">
         <v>27</v>
@@ -8725,7 +8725,7 @@
         <v>15</v>
       </c>
       <c r="B316" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C316" t="s">
         <v>27</v>
